--- a/tut11/demo1.xlsx
+++ b/tut11/demo1.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="E1" s="1" t="n">
-        <v>45616.62641405522</v>
+        <v>45617.71511452838</v>
       </c>
       <c r="F1" t="inlineStr">
         <is>
